--- a/trunk/04.系统设计/通讯定义(修订).xlsx
+++ b/trunk/04.系统设计/通讯定义(修订).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="14430" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="14430" windowHeight="5775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="通信规约" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="237">
   <si>
     <t>序号</t>
   </si>
@@ -1070,6 +1070,10 @@
   </si>
   <si>
     <t>二进制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加域名长度标识</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1301,6 +1305,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1320,15 +1333,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1627,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -1787,10 +1791,10 @@
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1804,8 +1808,8 @@
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6">
@@ -1840,7 +1844,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="30">
+      <c r="A15" s="33">
         <v>8</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -1852,12 +1856,12 @@
       <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="30"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
@@ -1867,10 +1871,10 @@
       <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="30"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
@@ -1880,10 +1884,10 @@
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="30"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="19" t="s">
         <v>13</v>
       </c>
@@ -1893,10 +1897,10 @@
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="30"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
@@ -1906,10 +1910,10 @@
       <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="30"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="19" t="s">
         <v>15</v>
       </c>
@@ -1919,10 +1923,10 @@
       <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="30"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="19" t="s">
         <v>16</v>
       </c>
@@ -1932,7 +1936,7 @@
       <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6">
@@ -2016,10 +2020,10 @@
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
@@ -2103,13 +2107,13 @@
       <c r="D34" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="G34" s="34"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
@@ -2124,9 +2128,9 @@
       <c r="D35" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
@@ -2141,15 +2145,15 @@
       <c r="D36" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" spans="1:7" s="22" customFormat="1">
       <c r="A37" s="22">
         <v>6</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="31" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -2158,7 +2162,7 @@
       <c r="D37" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="32" t="s">
         <v>91</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -2172,7 +2176,7 @@
       <c r="A38" s="22">
         <v>7</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="22" t="s">
@@ -2219,22 +2223,22 @@
       <c r="B46" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F34:G36"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E15:E21"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="E34:E36"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F34:G36"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2269,20 +2273,20 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="14">
@@ -2323,70 +2327,70 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="14" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="32.25" customHeight="1">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2411,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2596,7 +2600,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="27">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="27">
       <c r="C19" t="s">
         <v>150</v>
       </c>
@@ -2762,7 +2766,7 @@
       <c r="C24" t="s">
         <v>234</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="30">
         <v>2</v>
       </c>
       <c r="E24" s="21" t="s">
@@ -2976,7 +2980,7 @@
       <c r="E44" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="39" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2990,7 +2994,7 @@
       <c r="E45" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="36"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:7">
       <c r="C46" t="s">
@@ -3002,7 +3006,7 @@
       <c r="E46" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F46" s="36"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:7">
       <c r="C47" t="s">
@@ -3014,7 +3018,7 @@
       <c r="E47" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="39" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3028,7 +3032,7 @@
       <c r="E48" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F48" s="36"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" spans="1:6">
       <c r="C49" t="s">
@@ -3040,7 +3044,7 @@
       <c r="E49" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F49" s="36"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" spans="1:6">
       <c r="D50" t="s">
@@ -3118,10 +3122,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD6"/>
+  <dimension ref="A1:XFD7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19578,6 +19582,17 @@
         <v>40916</v>
       </c>
     </row>
+    <row r="7" spans="1:16384">
+      <c r="A7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="29">
+        <v>40943</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
